--- a/natmiOut/OldD0/LR-pairs_lrc2p/Vegfa-Kdr.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Vegfa-Kdr.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.475799922328131</v>
+        <v>36.35426266666666</v>
       </c>
       <c r="H2">
-        <v>8.475799922328131</v>
+        <v>109.062788</v>
       </c>
       <c r="I2">
-        <v>0.1402384697779166</v>
+        <v>0.4094848412143908</v>
       </c>
       <c r="J2">
-        <v>0.1402384697779166</v>
+        <v>0.4094848412143908</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>26.270623562464</v>
+        <v>62.351132</v>
       </c>
       <c r="N2">
-        <v>26.270623562464</v>
+        <v>187.053396</v>
       </c>
       <c r="O2">
-        <v>0.9205883905363822</v>
+        <v>0.9620005273240912</v>
       </c>
       <c r="P2">
-        <v>0.9205883905363822</v>
+        <v>0.9620005273240912</v>
       </c>
       <c r="Q2">
-        <v>222.6645491502439</v>
+        <v>2266.729430292005</v>
       </c>
       <c r="R2">
-        <v>222.6645491502439</v>
+        <v>20400.56487262805</v>
       </c>
       <c r="S2">
-        <v>0.1291019071841373</v>
+        <v>0.3939246331794657</v>
       </c>
       <c r="T2">
-        <v>0.1291019071841373</v>
+        <v>0.3939246331794657</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.475799922328131</v>
+        <v>36.35426266666666</v>
       </c>
       <c r="H3">
-        <v>8.475799922328131</v>
+        <v>109.062788</v>
       </c>
       <c r="I3">
-        <v>0.1402384697779166</v>
+        <v>0.4094848412143908</v>
       </c>
       <c r="J3">
-        <v>0.1402384697779166</v>
+        <v>0.4094848412143908</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.709693930540904</v>
+        <v>0.8562703333333334</v>
       </c>
       <c r="N3">
-        <v>0.709693930540904</v>
+        <v>2.568811</v>
       </c>
       <c r="O3">
-        <v>0.02486945129934371</v>
+        <v>0.01321118776478095</v>
       </c>
       <c r="P3">
-        <v>0.02486945129934371</v>
+        <v>0.01321118776478095</v>
       </c>
       <c r="Q3">
-        <v>6.01522376135534</v>
+        <v>31.12907661167422</v>
       </c>
       <c r="R3">
-        <v>6.01522376135534</v>
+        <v>280.161689505068</v>
       </c>
       <c r="S3">
-        <v>0.003487653794436382</v>
+        <v>0.005409781124114831</v>
       </c>
       <c r="T3">
-        <v>0.003487653794436382</v>
+        <v>0.005409781124114831</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.475799922328131</v>
+        <v>36.35426266666666</v>
       </c>
       <c r="H4">
-        <v>8.475799922328131</v>
+        <v>109.062788</v>
       </c>
       <c r="I4">
-        <v>0.1402384697779166</v>
+        <v>0.4094848412143908</v>
       </c>
       <c r="J4">
-        <v>0.1402384697779166</v>
+        <v>0.4094848412143908</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.55645728335023</v>
+        <v>1.606628666666667</v>
       </c>
       <c r="N4">
-        <v>1.55645728335023</v>
+        <v>4.819886</v>
       </c>
       <c r="O4">
-        <v>0.05454215816427412</v>
+        <v>0.02478828491112776</v>
       </c>
       <c r="P4">
-        <v>0.05454215816427412</v>
+        <v>0.02478828491112776</v>
       </c>
       <c r="Q4">
-        <v>13.19222052132693</v>
+        <v>58.40780055579644</v>
       </c>
       <c r="R4">
-        <v>13.19222052132693</v>
+        <v>525.670205002168</v>
       </c>
       <c r="S4">
-        <v>0.007648908799342904</v>
+        <v>0.01015042691081023</v>
       </c>
       <c r="T4">
-        <v>0.007648908799342904</v>
+        <v>0.01015042691081023</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>44.7532640265214</v>
+        <v>45.11545066666667</v>
       </c>
       <c r="H5">
-        <v>44.7532640265214</v>
+        <v>135.346352</v>
       </c>
       <c r="I5">
-        <v>0.7404763352321463</v>
+        <v>0.5081685556916724</v>
       </c>
       <c r="J5">
-        <v>0.7404763352321463</v>
+        <v>0.5081685556916724</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>26.270623562464</v>
+        <v>62.351132</v>
       </c>
       <c r="N5">
-        <v>26.270623562464</v>
+        <v>187.053396</v>
       </c>
       <c r="O5">
-        <v>0.9205883905363822</v>
+        <v>0.9620005273240912</v>
       </c>
       <c r="P5">
-        <v>0.9205883905363822</v>
+        <v>0.9620005273240912</v>
       </c>
       <c r="Q5">
-        <v>1175.696152432306</v>
+        <v>2812.999419756822</v>
       </c>
       <c r="R5">
-        <v>1175.696152432306</v>
+        <v>25316.9947778114</v>
       </c>
       <c r="S5">
-        <v>0.6816739176816401</v>
+        <v>0.4888584185449107</v>
       </c>
       <c r="T5">
-        <v>0.6816739176816401</v>
+        <v>0.4888584185449107</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>44.7532640265214</v>
+        <v>45.11545066666667</v>
       </c>
       <c r="H6">
-        <v>44.7532640265214</v>
+        <v>135.346352</v>
       </c>
       <c r="I6">
-        <v>0.7404763352321463</v>
+        <v>0.5081685556916724</v>
       </c>
       <c r="J6">
-        <v>0.7404763352321463</v>
+        <v>0.5081685556916724</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.709693930540904</v>
+        <v>0.8562703333333334</v>
       </c>
       <c r="N6">
-        <v>0.709693930540904</v>
+        <v>2.568811</v>
       </c>
       <c r="O6">
-        <v>0.02486945129934371</v>
+        <v>0.01321118776478095</v>
       </c>
       <c r="P6">
-        <v>0.02486945129934371</v>
+        <v>0.01321118776478095</v>
       </c>
       <c r="Q6">
-        <v>31.76111985151682</v>
+        <v>38.63102198083023</v>
       </c>
       <c r="R6">
-        <v>31.76111985151682</v>
+        <v>347.6791978274721</v>
       </c>
       <c r="S6">
-        <v>0.01841524015737237</v>
+        <v>0.00671351020540023</v>
       </c>
       <c r="T6">
-        <v>0.01841524015737237</v>
+        <v>0.00671351020540023</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>44.7532640265214</v>
+        <v>45.11545066666667</v>
       </c>
       <c r="H7">
-        <v>44.7532640265214</v>
+        <v>135.346352</v>
       </c>
       <c r="I7">
-        <v>0.7404763352321463</v>
+        <v>0.5081685556916724</v>
       </c>
       <c r="J7">
-        <v>0.7404763352321463</v>
+        <v>0.5081685556916724</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.55645728335023</v>
+        <v>1.606628666666667</v>
       </c>
       <c r="N7">
-        <v>1.55645728335023</v>
+        <v>4.819886</v>
       </c>
       <c r="O7">
-        <v>0.05454215816427412</v>
+        <v>0.02478828491112776</v>
       </c>
       <c r="P7">
-        <v>0.05454215816427412</v>
+        <v>0.02478828491112776</v>
       </c>
       <c r="Q7">
-        <v>69.65654374777507</v>
+        <v>72.48377635065246</v>
       </c>
       <c r="R7">
-        <v>69.65654374777507</v>
+        <v>652.3539871558721</v>
       </c>
       <c r="S7">
-        <v>0.04038717739313379</v>
+        <v>0.01259662694136147</v>
       </c>
       <c r="T7">
-        <v>0.04038717739313379</v>
+        <v>0.01259662694136147</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>7.20941584738978</v>
+        <v>7.310771333333334</v>
       </c>
       <c r="H8">
-        <v>7.20941584738978</v>
+        <v>21.932314</v>
       </c>
       <c r="I8">
-        <v>0.1192851949899371</v>
+        <v>0.0823466030939367</v>
       </c>
       <c r="J8">
-        <v>0.1192851949899371</v>
+        <v>0.0823466030939367</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>26.270623562464</v>
+        <v>62.351132</v>
       </c>
       <c r="N8">
-        <v>26.270623562464</v>
+        <v>187.053396</v>
       </c>
       <c r="O8">
-        <v>0.9205883905363822</v>
+        <v>0.9620005273240912</v>
       </c>
       <c r="P8">
-        <v>0.9205883905363822</v>
+        <v>0.9620005273240912</v>
       </c>
       <c r="Q8">
-        <v>189.3958498320393</v>
+        <v>455.8348684264827</v>
       </c>
       <c r="R8">
-        <v>189.3958498320393</v>
+        <v>4102.513815838344</v>
       </c>
       <c r="S8">
-        <v>0.1098125656706047</v>
+        <v>0.07921747559971475</v>
       </c>
       <c r="T8">
-        <v>0.1098125656706047</v>
+        <v>0.07921747559971475</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>7.20941584738978</v>
+        <v>7.310771333333334</v>
       </c>
       <c r="H9">
-        <v>7.20941584738978</v>
+        <v>21.932314</v>
       </c>
       <c r="I9">
-        <v>0.1192851949899371</v>
+        <v>0.0823466030939367</v>
       </c>
       <c r="J9">
-        <v>0.1192851949899371</v>
+        <v>0.0823466030939367</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.709693930540904</v>
+        <v>0.8562703333333334</v>
       </c>
       <c r="N9">
-        <v>0.709693930540904</v>
+        <v>2.568811</v>
       </c>
       <c r="O9">
-        <v>0.02486945129934371</v>
+        <v>0.01321118776478095</v>
       </c>
       <c r="P9">
-        <v>0.02486945129934371</v>
+        <v>0.01321118776478095</v>
       </c>
       <c r="Q9">
-        <v>5.116478669637935</v>
+        <v>6.259996606517112</v>
       </c>
       <c r="R9">
-        <v>5.116478669637935</v>
+        <v>56.33996945865401</v>
       </c>
       <c r="S9">
-        <v>0.002966557347534959</v>
+        <v>0.00108789643526589</v>
       </c>
       <c r="T9">
-        <v>0.002966557347534959</v>
+        <v>0.00108789643526589</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>7.20941584738978</v>
+        <v>7.310771333333334</v>
       </c>
       <c r="H10">
-        <v>7.20941584738978</v>
+        <v>21.932314</v>
       </c>
       <c r="I10">
-        <v>0.1192851949899371</v>
+        <v>0.0823466030939367</v>
       </c>
       <c r="J10">
-        <v>0.1192851949899371</v>
+        <v>0.0823466030939367</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.55645728335023</v>
+        <v>1.606628666666667</v>
       </c>
       <c r="N10">
-        <v>1.55645728335023</v>
+        <v>4.819886</v>
       </c>
       <c r="O10">
-        <v>0.05454215816427412</v>
+        <v>0.02478828491112776</v>
       </c>
       <c r="P10">
-        <v>0.05454215816427412</v>
+        <v>0.02478828491112776</v>
       </c>
       <c r="Q10">
-        <v>11.22114780437039</v>
+        <v>11.74569479957822</v>
       </c>
       <c r="R10">
-        <v>11.22114780437039</v>
+        <v>105.711253196204</v>
       </c>
       <c r="S10">
-        <v>0.006506071971797428</v>
+        <v>0.002041231058956057</v>
       </c>
       <c r="T10">
-        <v>0.006506071971797428</v>
+        <v>0.002041231058956057</v>
       </c>
     </row>
   </sheetData>
